--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col1a1-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H2">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I2">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J2">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>1082.519139680154</v>
+        <v>2010.136387810582</v>
       </c>
       <c r="R2">
-        <v>1082.519139680154</v>
+        <v>18091.22749029524</v>
       </c>
       <c r="S2">
-        <v>0.0004194925132627443</v>
+        <v>0.0007171287993794325</v>
       </c>
       <c r="T2">
-        <v>0.0004194925132627443</v>
+        <v>0.0007171287993794326</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H3">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I3">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J3">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>4444.207861135415</v>
+        <v>8316.542919486317</v>
       </c>
       <c r="R3">
-        <v>4444.207861135415</v>
+        <v>74848.88627537685</v>
       </c>
       <c r="S3">
-        <v>0.001722197656182392</v>
+        <v>0.002966978994562005</v>
       </c>
       <c r="T3">
-        <v>0.001722197656182392</v>
+        <v>0.002966978994562005</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H4">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I4">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J4">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>11815.15987273586</v>
+        <v>21947.05469423226</v>
       </c>
       <c r="R4">
-        <v>11815.15987273586</v>
+        <v>197523.4922480904</v>
       </c>
       <c r="S4">
-        <v>0.004578552866122556</v>
+        <v>0.0078297498011725</v>
       </c>
       <c r="T4">
-        <v>0.004578552866122556</v>
+        <v>0.007829749801172502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H5">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I5">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J5">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>11764.72792972824</v>
+        <v>25331.267611915</v>
       </c>
       <c r="R5">
-        <v>11764.72792972824</v>
+        <v>227981.408507235</v>
       </c>
       <c r="S5">
-        <v>0.004559009726656921</v>
+        <v>0.009037089045026278</v>
       </c>
       <c r="T5">
-        <v>0.004559009726656921</v>
+        <v>0.009037089045026278</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.4537623346414</v>
+        <v>89.95998966666667</v>
       </c>
       <c r="H6">
-        <v>48.4537623346414</v>
+        <v>269.879969</v>
       </c>
       <c r="I6">
-        <v>0.01237237634900862</v>
+        <v>0.02265176537473209</v>
       </c>
       <c r="J6">
-        <v>0.01237237634900862</v>
+        <v>0.0226517653747321</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>2820.85416858999</v>
+        <v>5888.666284566501</v>
       </c>
       <c r="R6">
-        <v>2820.85416858999</v>
+        <v>52997.99656109852</v>
       </c>
       <c r="S6">
-        <v>0.001093123586784004</v>
+        <v>0.002100818734591879</v>
       </c>
       <c r="T6">
-        <v>0.001093123586784004</v>
+        <v>0.002100818734591879</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H7">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I7">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J7">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>85887.98449992758</v>
+        <v>86196.5253252571</v>
       </c>
       <c r="R7">
-        <v>85887.98449992758</v>
+        <v>775768.727927314</v>
       </c>
       <c r="S7">
-        <v>0.03328289094970797</v>
+        <v>0.03075115255463216</v>
       </c>
       <c r="T7">
-        <v>0.03328289094970797</v>
+        <v>0.03075115255463217</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H8">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I8">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J8">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>352607.2121038294</v>
+        <v>356621.1261708876</v>
       </c>
       <c r="R8">
-        <v>352607.2121038294</v>
+        <v>3209590.135537988</v>
       </c>
       <c r="S8">
-        <v>0.1366406192538166</v>
+        <v>0.1272268297788601</v>
       </c>
       <c r="T8">
-        <v>0.1366406192538166</v>
+        <v>0.1272268297788601</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H9">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I9">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J9">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>937424.7815272214</v>
+        <v>941110.19890878</v>
       </c>
       <c r="R9">
-        <v>937424.7815272214</v>
+        <v>8469991.79017902</v>
       </c>
       <c r="S9">
-        <v>0.3632662584735661</v>
+        <v>0.3357469827021451</v>
       </c>
       <c r="T9">
-        <v>0.3632662584735661</v>
+        <v>0.3357469827021453</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H10">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I10">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J10">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>933423.4684967477</v>
+        <v>1086228.408913837</v>
       </c>
       <c r="R10">
-        <v>933423.4684967477</v>
+        <v>9776055.680224532</v>
       </c>
       <c r="S10">
-        <v>0.3617156892522217</v>
+        <v>0.3875188168622983</v>
       </c>
       <c r="T10">
-        <v>0.3617156892522217</v>
+        <v>0.3875188168622984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3844.36250207129</v>
+        <v>3857.568359333333</v>
       </c>
       <c r="H11">
-        <v>3844.36250207129</v>
+        <v>11572.705078</v>
       </c>
       <c r="I11">
-        <v>0.981634808235257</v>
+        <v>0.9713288509301208</v>
       </c>
       <c r="J11">
-        <v>0.981634808235257</v>
+        <v>0.971328850930121</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>223808.956560341</v>
+        <v>252511.5089740141</v>
       </c>
       <c r="R11">
-        <v>223808.956560341</v>
+        <v>2272603.580766127</v>
       </c>
       <c r="S11">
-        <v>0.0867293503059446</v>
+        <v>0.09008506903218508</v>
       </c>
       <c r="T11">
-        <v>0.0867293503059446</v>
+        <v>0.09008506903218509</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H12">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J12">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>2.880605454269195</v>
+        <v>2.999146477823111</v>
       </c>
       <c r="R12">
-        <v>2.880605454269195</v>
+        <v>26.992318300408</v>
       </c>
       <c r="S12">
-        <v>1.1162781122621E-06</v>
+        <v>1.069964369505763E-06</v>
       </c>
       <c r="T12">
-        <v>1.1162781122621E-06</v>
+        <v>1.069964369505763E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H13">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J13">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>11.82612753477528</v>
+        <v>12.40837714092089</v>
       </c>
       <c r="R13">
-        <v>11.82612753477528</v>
+        <v>111.675394268288</v>
       </c>
       <c r="S13">
-        <v>4.582803000780584E-06</v>
+        <v>4.426766589210314E-06</v>
       </c>
       <c r="T13">
-        <v>4.582803000780584E-06</v>
+        <v>4.426766589210314E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H14">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I14">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J14">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>31.44038079781345</v>
+        <v>32.74525658256</v>
       </c>
       <c r="R14">
-        <v>31.44038079781345</v>
+        <v>294.70730924304</v>
       </c>
       <c r="S14">
-        <v>1.218362232626148E-05</v>
+        <v>1.168207624160252E-05</v>
       </c>
       <c r="T14">
-        <v>1.218362232626148E-05</v>
+        <v>1.168207624160252E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H15">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I15">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J15">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>31.30618037144496</v>
+        <v>37.79454095640622</v>
       </c>
       <c r="R15">
-        <v>31.30618037144496</v>
+        <v>340.150868607656</v>
       </c>
       <c r="S15">
-        <v>1.213161763454316E-05</v>
+        <v>1.34834402001375E-05</v>
       </c>
       <c r="T15">
-        <v>1.213161763454316E-05</v>
+        <v>1.34834402001375E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.128936447352119</v>
+        <v>0.1342213333333333</v>
       </c>
       <c r="H16">
-        <v>0.128936447352119</v>
+        <v>0.402664</v>
       </c>
       <c r="I16">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="J16">
-        <v>3.292314517760468E-05</v>
+        <v>3.379669297668818E-05</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>7.506350332188306</v>
+        <v>8.785957437280889</v>
       </c>
       <c r="R16">
-        <v>7.506350332188306</v>
+        <v>79.07361693552801</v>
       </c>
       <c r="S16">
-        <v>2.908824103757357E-06</v>
+        <v>3.134445576232093E-06</v>
       </c>
       <c r="T16">
-        <v>2.908824103757357E-06</v>
+        <v>3.134445576232093E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H17">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I17">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J17">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N17">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P17">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q17">
-        <v>521.4598450059665</v>
+        <v>5.667999831455665</v>
       </c>
       <c r="R17">
-        <v>521.4598450059665</v>
+        <v>51.011998483101</v>
       </c>
       <c r="S17">
-        <v>0.0002020735642713777</v>
+        <v>2.022094589532721E-06</v>
       </c>
       <c r="T17">
-        <v>0.0002020735642713777</v>
+        <v>2.022094589532722E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,61 +1517,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H18">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I18">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J18">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N18">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P18">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q18">
-        <v>2140.817522290371</v>
+        <v>23.45023161203733</v>
       </c>
       <c r="R18">
-        <v>2140.817522290371</v>
+        <v>211.052084508336</v>
       </c>
       <c r="S18">
-        <v>0.0008295991174140842</v>
+        <v>8.366017621036475E-06</v>
       </c>
       <c r="T18">
-        <v>0.0008295991174140842</v>
+        <v>8.366017621036475E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,61 +1579,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H19">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I19">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J19">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N19">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P19">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q19">
-        <v>5691.475753285945</v>
+        <v>61.88430947381999</v>
       </c>
       <c r="R19">
-        <v>5691.475753285945</v>
+        <v>556.95878526438</v>
       </c>
       <c r="S19">
-        <v>0.00220553279882453</v>
+        <v>2.207761663462193E-05</v>
       </c>
       <c r="T19">
-        <v>0.00220553279882453</v>
+        <v>2.207761663462194E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,61 +1641,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>23.3406417224581</v>
+        <v>0.253661</v>
       </c>
       <c r="H20">
-        <v>23.3406417224581</v>
+        <v>0.760983</v>
       </c>
       <c r="I20">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074995E-05</v>
       </c>
       <c r="J20">
-        <v>0.005959892270556777</v>
+        <v>6.387138858074996E-05</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N20">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P20">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q20">
-        <v>5667.18220297341</v>
+        <v>71.42680537775632</v>
       </c>
       <c r="R20">
-        <v>5667.18220297341</v>
+        <v>642.841248399807</v>
       </c>
       <c r="S20">
-        <v>0.002196118681232401</v>
+        <v>2.548196206718562E-05</v>
       </c>
       <c r="T20">
-        <v>0.002196118681232401</v>
+        <v>2.548196206718562E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,61 +1703,371 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.253661</v>
+      </c>
+      <c r="H21">
+        <v>0.760983</v>
+      </c>
+      <c r="I21">
+        <v>6.387138858074995E-05</v>
+      </c>
+      <c r="J21">
+        <v>6.387138858074996E-05</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N21">
+        <v>196.376177</v>
+      </c>
+      <c r="O21">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P21">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q21">
+        <v>16.60432581133233</v>
+      </c>
+      <c r="R21">
+        <v>149.438932301991</v>
+      </c>
+      <c r="S21">
+        <v>5.923697668373201E-06</v>
+      </c>
+      <c r="T21">
+        <v>5.923697668373201E-06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H22">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I22">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J22">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>22.34478233333333</v>
+      </c>
+      <c r="N22">
+        <v>67.034347</v>
+      </c>
+      <c r="O22">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="P22">
+        <v>0.03165884810812076</v>
+      </c>
+      <c r="Q22">
+        <v>525.4979396184588</v>
+      </c>
+      <c r="R22">
+        <v>4729.48145656613</v>
+      </c>
+      <c r="S22">
+        <v>0.0001874746951501193</v>
+      </c>
+      <c r="T22">
+        <v>0.0001874746951501193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H23">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I23">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J23">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>92.44713066666667</v>
+      </c>
+      <c r="N23">
+        <v>277.341392</v>
+      </c>
+      <c r="O23">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="P23">
+        <v>0.1309822411400946</v>
+      </c>
+      <c r="Q23">
+        <v>2174.144100589438</v>
+      </c>
+      <c r="R23">
+        <v>19567.29690530495</v>
+      </c>
+      <c r="S23">
+        <v>0.0007756395824622522</v>
+      </c>
+      <c r="T23">
+        <v>0.0007756395824622522</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H24">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I24">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J24">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>243.96462</v>
+      </c>
+      <c r="N24">
+        <v>731.89386</v>
+      </c>
+      <c r="O24">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="P24">
+        <v>0.3456573768818275</v>
+      </c>
+      <c r="Q24">
+        <v>5737.487313024781</v>
+      </c>
+      <c r="R24">
+        <v>51637.38581722303</v>
+      </c>
+      <c r="S24">
+        <v>0.002046884685633531</v>
+      </c>
+      <c r="T24">
+        <v>0.002046884685633532</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="H21">
-        <v>23.3406417224581</v>
-      </c>
-      <c r="I21">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="J21">
-        <v>0.005959892270556777</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="N21">
-        <v>58.2174434486227</v>
-      </c>
-      <c r="O21">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="P21">
-        <v>0.08835195082564674</v>
-      </c>
-      <c r="Q21">
-        <v>1358.832489531768</v>
-      </c>
-      <c r="R21">
-        <v>1358.832489531768</v>
-      </c>
-      <c r="S21">
-        <v>0.0005265681088143845</v>
-      </c>
-      <c r="T21">
-        <v>0.0005265681088143845</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H25">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I25">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J25">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>281.5837096666667</v>
+      </c>
+      <c r="N25">
+        <v>844.751129</v>
+      </c>
+      <c r="O25">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="P25">
+        <v>0.3989573834764815</v>
+      </c>
+      <c r="Q25">
+        <v>6622.201865856423</v>
+      </c>
+      <c r="R25">
+        <v>59599.81679270781</v>
+      </c>
+      <c r="S25">
+        <v>0.002362512166889522</v>
+      </c>
+      <c r="T25">
+        <v>0.002362512166889522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>23.51770233333334</v>
+      </c>
+      <c r="H26">
+        <v>70.55310700000001</v>
+      </c>
+      <c r="I26">
+        <v>0.005921715613589568</v>
+      </c>
+      <c r="J26">
+        <v>0.005921715613589569</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>65.45872566666667</v>
+      </c>
+      <c r="N26">
+        <v>196.376177</v>
+      </c>
+      <c r="O26">
+        <v>0.09274415039347572</v>
+      </c>
+      <c r="P26">
+        <v>0.09274415039347571</v>
+      </c>
+      <c r="Q26">
+        <v>1539.438825347993</v>
+      </c>
+      <c r="R26">
+        <v>13854.94942813194</v>
+      </c>
+      <c r="S26">
+        <v>0.0005492044834541443</v>
+      </c>
+      <c r="T26">
+        <v>0.0005492044834541443</v>
       </c>
     </row>
   </sheetData>
